--- a/xlsx_files/Race41.xlsx
+++ b/xlsx_files/Race41.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Elo_project\xlsx_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Elo_new\xlsx_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04580657-0A91-4ACE-B013-5FEE1EDFCF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C99ABAB-B5C1-457E-AAE1-ADBFD43090D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3612" yWindow="348" windowWidth="26904" windowHeight="15732" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Track Name</t>
   </si>
@@ -282,6 +282,9 @@
   </si>
   <si>
     <t>01:37.1520</t>
+  </si>
+  <si>
+    <t>0.7</t>
   </si>
 </sst>
 </file>
@@ -651,7 +654,7 @@
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -723,8 +726,8 @@
       <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="G2">
-        <v>1</v>
+      <c r="G2" t="s">
+        <v>39</v>
       </c>
       <c r="H2" t="s">
         <v>36</v>
